--- a/data/financial_statements/sofp/FAST.xlsx
+++ b/data/financial_statements/sofp/FAST.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -116,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,1517 +587,1553 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>230100000</v>
+      </c>
+      <c r="C2">
         <v>231500000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>247900000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>234200000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>236200000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>250500000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>321800000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>333900000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>245700000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>331800000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>201500000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>160700000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>174900000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>191200000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>175000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>185400000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>167200000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>129700000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>135500000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>137100000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>116900000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>133400000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>115100000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>134300000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>112700000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>146983000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>155458000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>150552000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>129019000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>111775000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>121166000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>120790000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>114496000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>116329000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>106393000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>89474000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>58957000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>92631000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>123290000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>159657000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>1013200000</v>
+      </c>
+      <c r="C3">
         <v>1110600000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1103900000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1071600000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>900200000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>949400000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>908900000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>851000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>769400000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>834500000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>881500000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>833900000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>741800000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>817300000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>819800000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>793000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>714300000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>772500000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>733700000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>688600000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>607800000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>632100000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>613500000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>574700000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>499700000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>543744000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>537341000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>533485000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>468375000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>537055000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>537650000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>521094000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>462077000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>522265000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>502330000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>473181000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>414331000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>453652000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>436452000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>418733000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>1708000000</v>
+      </c>
+      <c r="C4">
         <v>1678100000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1665200000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1600800000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1523600000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1401100000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1327900000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1305300000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1337500000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1342600000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1401500000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1345500000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1366400000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1354700000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1345700000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1293900000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1278700000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1194700000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1163400000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1134900000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1092900000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1047000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1044300000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1007400000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>993000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>966931000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>985085000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>965054000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>913263000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>883207000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>876697000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>867922000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>869224000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>836379000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>818771000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>793987000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>784068000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>755985000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>725107000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>700484000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>165400000</v>
+      </c>
+      <c r="C5">
         <v>172200000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>129200000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>127400000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>188100000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>162600000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>146700000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>124000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>140300000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>123200000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>121800000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>124200000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>157400000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>137200000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>123800000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>116900000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>147000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>126400000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>108100000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>99700000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>118100000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>117700000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>100000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>94300000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>102500000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>120004000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>113022000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>118089000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>131561000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>117687000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>107207000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>97563000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>115703000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>127334000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>111009000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>100957000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>107988000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>120747000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>105876000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>83883000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>3124800000</v>
+      </c>
+      <c r="C6">
         <v>3195600000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3152700000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3034000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2856600000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2770300000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2705300000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2614200000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2499600000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2646700000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2606300000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2464300000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2457200000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2500800000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2468300000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2389200000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2316200000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2225500000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2140700000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2060300000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1935700000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1930200000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1872900000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1810700000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>1720800000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>1777662000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>1790906000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>1767180000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1664776000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1672990000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>1663373000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1628947000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1583265000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>1619405000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1555782000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>1475492000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>1408461000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>1436830000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1405318000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1376836000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>1010000000</v>
+      </c>
+      <c r="C7">
         <v>1008500000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1008700000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1008400000</v>
-      </c>
-      <c r="E7">
-        <v>1019200000</v>
       </c>
       <c r="F7">
         <v>1019200000</v>
       </c>
       <c r="G7">
+        <v>1019200000</v>
+      </c>
+      <c r="H7">
         <v>1015800000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1022000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1030700000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1023700000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1029700000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1027700000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1023200000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>997700000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>975100000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>943300000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>924800000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>883800000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>880100000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>889000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>893600000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>889300000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>895200000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>890700000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>899700000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>904201000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>859490000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>826736000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>818889000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>810652000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>805854000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>783151000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>763889000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>741489000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>714912000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>677295000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>654850000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>611051000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>575571000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>555734000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>170800000</v>
+      </c>
+      <c r="C8">
         <v>173500000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>176100000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>178300000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>180900000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>183300000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>185900000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>188600000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>191400000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>193800000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>196400000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>200300000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>76300000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>77300000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>78500000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>98400000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>80500000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>84600000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>79300000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>80300000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>81200000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>82100000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>83300000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>85000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>48400000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>48605000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>48740000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>48865000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>48797000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>11635000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>11705000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>11839000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>11948000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>12101000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>12279000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>12319000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>12473000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>12538000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>12554000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>12726000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>1423800000</v>
+      </c>
+      <c r="C9">
         <v>1431800000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1439600000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1432700000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1442400000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1452200000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1461300000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1460200000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1465100000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1461900000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1478900000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1470400000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1342700000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1313400000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1288100000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1262600000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1005300000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>968400000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>959400000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>969300000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>974800000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>971400000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>978500000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>975700000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>948100000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>952806000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>908230000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>875601000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>867686000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>822287000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>817559000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>794990000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>775837000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>753590000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>727191000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>689614000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>667323000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>623589100</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>588125000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>568460000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>4548600000</v>
+      </c>
+      <c r="C10">
         <v>4627400000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>4592300000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4466700000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>4299000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4222500000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4166600000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4074400000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3964700000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>4108600000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>4085200000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3934700000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>3799900000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>3814200000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3756400000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>3651800000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>3321500000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>3193900000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>3100100000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>3029600000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>2910500000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>2901600000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2851400000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>2786400000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>2668900000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>2730468000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>2699136000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>2642781000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>2532462000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>2495277000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>2480932000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>2423937000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>2359102000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>2372995000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>2282973000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>2165106000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>2075784000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>2060419000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>1993443000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>1945296000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE11">
         <v>41510000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>79575000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>125000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>105000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>70000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>255000000</v>
+      </c>
+      <c r="C12">
         <v>277200000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>291800000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>289900000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>233100000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>256900000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>236100000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>215100000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>207000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>210400000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>194100000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>212100000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>192800000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>215200000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>203800000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>183900000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>193600000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>186000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>172100000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>148100000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>147500000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>147100000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>141200000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>129700000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>108800000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>117765000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>158698000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>158496000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>125973000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>131979000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>133472000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>132234000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>103909000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>112579000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>109488000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>105697000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>91253000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>105131000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>89753000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>75327000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>241100000</v>
+      </c>
+      <c r="C13">
         <v>282400000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>268700000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>268200000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>298300000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>278000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>277900000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>265800000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>272100000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>258200000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>238200000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>227500000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>251500000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>241300000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>226000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>232800000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>240800000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>227600000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>204400000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>199700000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>194000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>198700000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>180400000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>163500000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>156400000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>189012000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>176556000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>179351000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>185143000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>194791000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>182397000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>168943000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>174002000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>182143000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>166625000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>148569000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>148579000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>152447000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>139290000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>126091000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>201800000</v>
+      </c>
+      <c r="C14">
         <v>150300000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>195000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>35000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>60000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>35000000</v>
-      </c>
-      <c r="G14">
-        <v>40000000</v>
       </c>
       <c r="H14">
         <v>40000000</v>
@@ -1995,13 +2145,13 @@
         <v>40000000</v>
       </c>
       <c r="K14">
+        <v>40000000</v>
+      </c>
+      <c r="L14">
         <v>97000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>4900000</v>
-      </c>
-      <c r="M14">
-        <v>3000000</v>
       </c>
       <c r="N14">
         <v>3000000</v>
@@ -2010,312 +2160,318 @@
         <v>3000000</v>
       </c>
       <c r="P14">
+        <v>3000000</v>
+      </c>
+      <c r="Q14">
         <v>4400000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3000000</v>
-      </c>
-      <c r="R14">
-        <v>2500000</v>
       </c>
       <c r="S14">
         <v>2500000</v>
       </c>
       <c r="T14">
+        <v>2500000</v>
+      </c>
+      <c r="U14">
         <v>13100000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>3000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>8000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>8800000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>10900000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>10500000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>12610000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>67610000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>7610000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>62050000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>90000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15">
         <v>61100000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1400000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>47200000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>102300000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>39500000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>41700000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>42100000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>6500000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>6600000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>11900000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>65500000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>11678000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>8318000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>56216000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>0</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1132000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>66186000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>7442000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>8181000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>5350000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>47260000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1994000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>7097000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>51679000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>282000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>269000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>268000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>298000000</v>
-      </c>
-      <c r="F16">
-        <v>278000000</v>
       </c>
       <c r="G16">
         <v>278000000</v>
       </c>
       <c r="H16">
+        <v>278000000</v>
+      </c>
+      <c r="I16">
         <v>266000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>272000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>258000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>238000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>228000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>789800000</v>
+      </c>
+      <c r="C17">
         <v>802600000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>849000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>745500000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>682200000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>662500000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>650200000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>661200000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>612700000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>603000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>631300000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>580400000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>544700000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>555100000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>527900000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>554600000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>437400000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>416100000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>381000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>403000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>351000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>360400000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>342300000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>369600000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>275700000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>331065000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>411182000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>401673000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>373166000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>368280000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>396576000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>492363000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>375353000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>407903000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>351463000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>301526000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>239832000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>259572000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>236140000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>253097000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>353200000</v>
+      </c>
+      <c r="C18">
         <v>404700000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>310000000</v>
-      </c>
-      <c r="D18">
-        <v>330000000</v>
       </c>
       <c r="E18">
         <v>330000000</v>
@@ -2324,7 +2480,7 @@
         <v>330000000</v>
       </c>
       <c r="G18">
-        <v>365000000</v>
+        <v>330000000</v>
       </c>
       <c r="H18">
         <v>365000000</v>
@@ -2336,586 +2492,604 @@
         <v>365000000</v>
       </c>
       <c r="K18">
+        <v>365000000</v>
+      </c>
+      <c r="L18">
         <v>405000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>450100000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>342000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>442000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>497000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>484600000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>497000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>387500000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>422500000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>391900000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>412000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>432000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>436200000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>354100000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>379500000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>432390000</v>
-      </c>
-      <c r="AA18">
-        <v>362390000</v>
       </c>
       <c r="AB18">
         <v>362390000</v>
       </c>
       <c r="AC18">
+        <v>362390000</v>
+      </c>
+      <c r="AD18">
         <v>302950000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>273490000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>250425000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>83700000</v>
+      </c>
+      <c r="C19">
         <v>92900000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>89100000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>89600000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>88600000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>104600000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>103000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>102600000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>102300000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>102900000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>100300000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>99900000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>99400000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>86600000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>86700000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>85000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>84400000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>74700000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>70000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>62700000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>50600000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>82900000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>81400000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>81000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>80600000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>57715000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>57402000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>56842000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>55057000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>70016000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>69947000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>68761000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>68532000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>63519000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>63386000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>63256000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>63255000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>51212000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>51251000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>51336000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>3500000</v>
+      </c>
+      <c r="C20">
         <v>4800000</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="I20">
         <v>0</v>
       </c>
       <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>7600000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>595600000</v>
+      </c>
+      <c r="C21">
         <v>663600000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>564600000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>579200000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>574600000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>595300000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>635600000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>626500000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>618800000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>620000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>670900000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>697700000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>589600000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>673400000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>724799900</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>700000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>581400000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>462200000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>492500000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>454600000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>462600000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>514900000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>517600000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>435100000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>460100000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>490105000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>419792000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>419232000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>358007000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>343506000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>320372000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>68761000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>68532000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>63519000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>63386000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>63256000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>63255000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>51212000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>51251000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>51336000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>1385400000</v>
+      </c>
+      <c r="C22">
         <v>1466200000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1413600000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1324700000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1256800000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1257800000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1285800000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1287700000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1231500000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1223000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1302200000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>1278100000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1134300000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1228500000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1252700000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>1254600000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1018800000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>878300000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>873500000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>857600000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>813600000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>875300000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>859900000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>804700000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>735800000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>821170000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>830974000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>820905000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>731173000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>711786000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>716948000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>561124000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>443885000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>471422000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>414849000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>364782000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>303087000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>310784000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>287391000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>304433000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>3600000</v>
+      </c>
+      <c r="C23">
         <v>2800000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>55700000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>101600000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>96200000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>90600000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>78400000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>70000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>59100000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>57800000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>44400000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>24200000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>67200000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>50300000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>46000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>22700000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>3000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>7400000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>400000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>13700000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>8500000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1300000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>1200000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>41500000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>37400000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>31503000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>27701000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>24716000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>2024000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>1031000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>2934000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>33744000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>56734000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>70631000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>64573000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>69847000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>68125000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>73344000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>66560000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>5800000</v>
+        <v>5700000</v>
       </c>
       <c r="C24">
         <v>5800000</v>
@@ -2927,7 +3101,7 @@
         <v>5800000</v>
       </c>
       <c r="F24">
-        <v>2900000</v>
+        <v>5800000</v>
       </c>
       <c r="G24">
         <v>2900000</v>
@@ -2936,10 +3110,10 @@
         <v>2900000</v>
       </c>
       <c r="I24">
+        <v>2900000</v>
+      </c>
+      <c r="J24">
         <v>5700000</v>
-      </c>
-      <c r="J24">
-        <v>2900000</v>
       </c>
       <c r="K24">
         <v>2900000</v>
@@ -2987,926 +3161,950 @@
         <v>2900000</v>
       </c>
       <c r="Z24">
-        <v>2890000</v>
+        <v>2900000</v>
       </c>
       <c r="AA24">
         <v>2890000</v>
       </c>
       <c r="AB24">
+        <v>2890000</v>
+      </c>
+      <c r="AC24">
         <v>2889000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>2896000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>2897000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>2902000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>2940000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>2959000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>2965000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>2968000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>2966000</v>
-      </c>
-      <c r="AK24">
-        <v>2968000</v>
       </c>
       <c r="AL24">
         <v>2968000</v>
       </c>
       <c r="AM24">
+        <v>2968000</v>
+      </c>
+      <c r="AN24">
         <v>2969000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>2967000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>3218700000</v>
+      </c>
+      <c r="C25">
         <v>3239700000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>3171600000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>3063000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2970900000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>2900800000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2818300000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2739400000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2689600000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>2866700000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>2788600000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>2692900000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2633900000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>2581500000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>2494200000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2412700000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2341600000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2342000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2259200000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>2178500000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>2110600000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>2050200000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>2023700000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>1981700000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1940100000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1912048000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1871813000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1826958000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1842772000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1819794000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1781645000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>1887159000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>1886350000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>1841994000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>1782873000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>1726519000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>1688781000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1663789000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1618658000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>1556987000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>3163200000</v>
+      </c>
+      <c r="C26">
         <v>3161200000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>3178700000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>3142000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>3042200000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2964700000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2880800000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2786700000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2733200000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2885600000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>2783000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>2656600000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2665600000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>2585700000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>2503700000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>2397200000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2302700000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2315600000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2226600000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2172000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>2096900000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>2026300000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1991500000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1981700000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1933100000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1909298000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1868162000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1821876000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1801289000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1783491000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1763984000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1862813000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1915217000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1901573000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1868124000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1800324000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1772697000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1749635000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1706052000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1640863000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>3163200000</v>
+      </c>
+      <c r="C27">
         <v>3161200000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>3178700000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>3142000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>3042200000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2964700000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2880800000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>2786700000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2733200000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>2885600000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>2783000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>2656600000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2665600000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>2585700000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>2503700000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>2397200000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2302700000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2315600000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>2226600000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>2172000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>2096900000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>2026300000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1991500000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1981700000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1933100000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>1909298000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>1868162000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>1821876000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1801289000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>1783491000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1763984000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>1862813000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>1915217000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>1901573000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1868124000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>1800324000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>1772697000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>1749635000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1706052000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1640863000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>4548600000</v>
+      </c>
+      <c r="C28">
         <v>4627400000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>4592300000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>4466700000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>4299000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>4222500000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>4166600000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>4074400000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>3964700000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>4108600000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>4085200000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>3934700000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>3799900000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>3814200000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>3756400000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>3651800000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>3321500000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>3193900000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>3100100000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>3029600000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>2910500000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>2901600000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>2851400000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>2786400000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>2668900000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>2730468000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>2699136000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>2642781000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>2532462000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>2495277000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>2480932000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>2423937000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>2359102000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>2372995000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>2282973000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>2165106000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>2075784000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>2060419000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>1993443000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1945296000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>570812000</v>
+      </c>
+      <c r="C29">
         <v>572754000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>574676000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>575602000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>575465000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>575163000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>574705000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>574424000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>574160000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>574050000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>573571000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>572818000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>574129000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>573526000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>573397000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>572532000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>571804000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>574114000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>573898000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>575374000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>575184000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>574766000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>575956000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>578528000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>578324000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>578050000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>577892000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>577746000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>579164000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>579308000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>580298000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>587910000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>591736000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>592882000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>593528000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>593248000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>593508000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>593484000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>593720000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>593372000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>3163200000</v>
+      </c>
+      <c r="C30">
         <v>3161200000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>3178700000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>3142000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>3042200000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2964700000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2880800000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2786700000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2733200000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>2885600000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>2783000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>2656600000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2665600000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>2585700000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>2503700000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2397200000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2302700000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2315600000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>2226600000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>2172000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>2096900000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>2026300000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1991500000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1981700000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1933100000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1909298000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1868162000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1821876000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1801289000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1783491000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1763984000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1862813000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1915217000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1901573000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1868124000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1800324000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1772697000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1749635000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1706052000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1640863000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>324900000</v>
+      </c>
+      <c r="C31">
         <v>323500000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>257100000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>130800000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>153800000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>114500000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>83200000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>71100000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>159300000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>73200000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>300500000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>294300000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>170100000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>253800000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>325000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>303600000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>332800000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>260300000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>289500000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>267900000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>298100000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>306600000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>329900000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>230700000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>277300000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>298017000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>274542000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>219448000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>235981000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>161715000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>129259000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-120790000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-24496000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-116329000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-106393000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-89474000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-58957000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-92631000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-123290000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-159657000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
         <v>555000000</v>
       </c>
       <c r="C32">
+        <v>555000000</v>
+      </c>
+      <c r="D32">
         <v>505000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>365000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>390000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>365000000</v>
-      </c>
-      <c r="G32">
-        <v>405000000</v>
       </c>
       <c r="H32">
         <v>405000000</v>
@@ -3918,69 +4116,72 @@
         <v>405000000</v>
       </c>
       <c r="K32">
+        <v>405000000</v>
+      </c>
+      <c r="L32">
         <v>502000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>455000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>345000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>445000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>500000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>489000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>500000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>390000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>425000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>405000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>415000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>440000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>445000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>365000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>390000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>445000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>430000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>370000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>365000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>273490000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>250425000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>90000000</v>
       </c>
     </row>
